--- a/data/상품별공급량_MJ.xlsx
+++ b/data/상품별공급량_MJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\0. 마케팅기획팀\2025\0. 스터디\2025\streamlit_study\사업계획_공급량예측_상품별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{396F5FC1-9AF4-4506-8401-4205821FC53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103AF195-1495-4F26-9D21-99FCDAFEAA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +246,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,7 +1343,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A1:X148" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A1:X153" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="날짜" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="연" dataDxfId="22"/>
@@ -1640,10 +1643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI148"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12971,6 +12977,314 @@
         <v>0</v>
       </c>
     </row>
+    <row r="149" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A149" s="10">
+        <v>45748</v>
+      </c>
+      <c r="B149" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C149" s="11">
+        <v>4</v>
+      </c>
+      <c r="D149" s="11">
+        <v>14.9</v>
+      </c>
+      <c r="E149" s="11">
+        <v>19571912</v>
+      </c>
+      <c r="F149" s="11">
+        <v>1478723548</v>
+      </c>
+      <c r="G149" s="11">
+        <v>42784248</v>
+      </c>
+      <c r="H149" s="11">
+        <v>17885485</v>
+      </c>
+      <c r="I149" s="11">
+        <v>211709415</v>
+      </c>
+      <c r="J149" s="11">
+        <v>84053066</v>
+      </c>
+      <c r="K149" s="11">
+        <v>43997483</v>
+      </c>
+      <c r="L149" s="11">
+        <v>36746910</v>
+      </c>
+      <c r="M149" s="11">
+        <v>791304042</v>
+      </c>
+      <c r="N149" s="11">
+        <v>251298301</v>
+      </c>
+      <c r="O149" s="11">
+        <v>11814868</v>
+      </c>
+      <c r="P149" s="11">
+        <v>22897564</v>
+      </c>
+      <c r="Q149" s="11">
+        <v>16554542</v>
+      </c>
+      <c r="R149" s="11">
+        <v>1199348</v>
+      </c>
+      <c r="S149" s="11">
+        <v>2520800</v>
+      </c>
+      <c r="T149" s="11">
+        <v>135201316</v>
+      </c>
+      <c r="U149" s="11">
+        <v>76508099</v>
+      </c>
+      <c r="V149" s="11">
+        <v>3033061532</v>
+      </c>
+      <c r="W149" s="8">
+        <f>SUM(표1[[#This Row],[취사용]:[주한미군]])</f>
+        <v>3033061532</v>
+      </c>
+      <c r="X149" s="13">
+        <f t="shared" ref="X149:X152" si="6">V149-W149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B150" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C150" s="11">
+        <v>5</v>
+      </c>
+      <c r="D150" s="11">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E150" s="11">
+        <v>19762938</v>
+      </c>
+      <c r="F150" s="11">
+        <v>905399426</v>
+      </c>
+      <c r="G150" s="11">
+        <v>23829114</v>
+      </c>
+      <c r="H150" s="11">
+        <v>9729447</v>
+      </c>
+      <c r="I150" s="11">
+        <v>209938914</v>
+      </c>
+      <c r="J150" s="11">
+        <v>68274577</v>
+      </c>
+      <c r="K150" s="11">
+        <v>27992495</v>
+      </c>
+      <c r="L150" s="11">
+        <v>62653591</v>
+      </c>
+      <c r="M150" s="11">
+        <v>728699876</v>
+      </c>
+      <c r="N150" s="11">
+        <v>262403159</v>
+      </c>
+      <c r="O150" s="11">
+        <v>11964368</v>
+      </c>
+      <c r="P150" s="11">
+        <v>17947084</v>
+      </c>
+      <c r="Q150" s="11">
+        <v>16557905</v>
+      </c>
+      <c r="R150" s="11">
+        <v>464679</v>
+      </c>
+      <c r="S150" s="11">
+        <v>2226799</v>
+      </c>
+      <c r="T150" s="11">
+        <v>134762670</v>
+      </c>
+      <c r="U150" s="11">
+        <v>75176244</v>
+      </c>
+      <c r="V150" s="11">
+        <v>2367844372</v>
+      </c>
+      <c r="W150" s="8">
+        <f>SUM(표1[[#This Row],[취사용]:[주한미군]])</f>
+        <v>2367844372</v>
+      </c>
+      <c r="X150" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A151" s="10">
+        <v>45809</v>
+      </c>
+      <c r="B151" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C151" s="11">
+        <v>6</v>
+      </c>
+      <c r="D151" s="11">
+        <v>24.8</v>
+      </c>
+      <c r="E151" s="11">
+        <v>18680337</v>
+      </c>
+      <c r="F151" s="11">
+        <v>508182440</v>
+      </c>
+      <c r="G151" s="11">
+        <v>16470659</v>
+      </c>
+      <c r="H151" s="11">
+        <v>6980260</v>
+      </c>
+      <c r="I151" s="11">
+        <v>189213793</v>
+      </c>
+      <c r="J151" s="11">
+        <v>53881642</v>
+      </c>
+      <c r="K151" s="11">
+        <v>20430807</v>
+      </c>
+      <c r="L151" s="11">
+        <v>136876544</v>
+      </c>
+      <c r="M151" s="11">
+        <v>689750897</v>
+      </c>
+      <c r="N151" s="11">
+        <v>259332171</v>
+      </c>
+      <c r="O151" s="11">
+        <v>12286731</v>
+      </c>
+      <c r="P151" s="11">
+        <v>10163874</v>
+      </c>
+      <c r="Q151" s="11">
+        <v>16933147</v>
+      </c>
+      <c r="R151" s="11">
+        <v>537097</v>
+      </c>
+      <c r="S151" s="11">
+        <v>1870822</v>
+      </c>
+      <c r="T151" s="11">
+        <v>122588374</v>
+      </c>
+      <c r="U151" s="11">
+        <v>66625419</v>
+      </c>
+      <c r="V151" s="11">
+        <v>1941591221</v>
+      </c>
+      <c r="W151" s="8">
+        <f>SUM(표1[[#This Row],[취사용]:[주한미군]])</f>
+        <v>1941591221</v>
+      </c>
+      <c r="X151" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A152" s="10">
+        <v>45839</v>
+      </c>
+      <c r="B152" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C152" s="11">
+        <v>7</v>
+      </c>
+      <c r="D152" s="11">
+        <v>28</v>
+      </c>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="11"/>
+      <c r="U152" s="11"/>
+      <c r="V152" s="11"/>
+      <c r="W152" s="11"/>
+      <c r="X152" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A153" s="10">
+        <v>45870</v>
+      </c>
+      <c r="B153" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C153" s="11">
+        <v>8</v>
+      </c>
+      <c r="D153" s="11">
+        <v>28.8</v>
+      </c>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11">
+        <f>SUM(U153:U153)</f>
+        <v>0</v>
+      </c>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="11"/>
+      <c r="T153" s="11"/>
+      <c r="U153" s="11"/>
+      <c r="V153" s="11"/>
+      <c r="W153" s="11">
+        <f>SUM(표1[[#This Row],[취사용]:[주한미군]])</f>
+        <v>0</v>
+      </c>
+      <c r="X153" s="13">
+        <f>V153-W153</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
